--- a/Sample Data/Workflow Examples/Workflow 2 - Personalized Files/Scores/8 Dena Demas ParklandRegionalCollege MarksWcmts.xlsx
+++ b/Sample Data/Workflow Examples/Workflow 2 - Personalized Files/Scores/8 Dena Demas ParklandRegionalCollege MarksWcmts.xlsx
@@ -5,29 +5,26 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvmm\Dropbox\Berts Files\Work in DROPBOX\CoSeT\GitHub Version\Sample Data\Sample 25P 10M 3C 4R\Scores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvmm\Dropbox\Berts Files\Work in DROPBOX\CoSeT\GitHub Version\Sample Data\Workflow Examples\Workflow 2 - Personalized Files\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AA2C6C-B174-407D-8AE6-0F21C4653809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E935E0F-970E-47D8-8AC2-41E93A5270D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F3A572E-842C-4C16-96C0-0D3401349BC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{505DF712-A883-4D61-817C-D6F2900C38AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
-    <sheet name="3 Project 3" sheetId="2" r:id="rId2"/>
-    <sheet name="5 Project 5" sheetId="3" r:id="rId3"/>
-    <sheet name="6 Project 6" sheetId="4" r:id="rId4"/>
-    <sheet name="7 Project 7" sheetId="5" r:id="rId5"/>
-    <sheet name="10 Project 10" sheetId="6" r:id="rId6"/>
-    <sheet name="11 Project 11" sheetId="7" r:id="rId7"/>
-    <sheet name="12 Project 12" sheetId="8" r:id="rId8"/>
-    <sheet name="13 Project 13" sheetId="9" r:id="rId9"/>
-    <sheet name="20 Project 20" sheetId="10" r:id="rId10"/>
-    <sheet name="22 Project 22" sheetId="11" r:id="rId11"/>
+    <sheet name="6 Project 6" sheetId="2" r:id="rId2"/>
+    <sheet name="11 Project 11" sheetId="3" r:id="rId3"/>
+    <sheet name="13 Project 13" sheetId="4" r:id="rId4"/>
+    <sheet name="14 Project 14" sheetId="5" r:id="rId5"/>
+    <sheet name="15 Project 15" sheetId="6" r:id="rId6"/>
+    <sheet name="16 Project 16" sheetId="7" r:id="rId7"/>
+    <sheet name="21 Project 21" sheetId="8" r:id="rId8"/>
+    <sheet name="22 Project 22" sheetId="9" r:id="rId9"/>
+    <sheet name="23 Project 23" sheetId="10" r:id="rId10"/>
+    <sheet name="25 Project 25" sheetId="11" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="55">
   <si>
     <t>In this workbook there are individual sheets for you to complete, one for each project that we are asking to you score.  
 For each sheet, please:
@@ -155,16 +152,22 @@
     <t>Simply dummy text ... Lorem Ipsum.</t>
   </si>
   <si>
-    <t>Project 12</t>
+    <t>Project 14</t>
   </si>
   <si>
-    <t>12 Project 12</t>
+    <t>14 Project 14</t>
   </si>
   <si>
-    <t>Project 20</t>
+    <t>Project 15</t>
   </si>
   <si>
-    <t>20 Project 20</t>
+    <t>15 Project 15</t>
+  </si>
+  <si>
+    <t>Project 16</t>
+  </si>
+  <si>
+    <t>16 Project 16</t>
   </si>
   <si>
     <t>Project 22</t>
@@ -173,16 +176,16 @@
     <t>22 Project 22</t>
   </si>
   <si>
-    <t>Project 5</t>
+    <t>Project 6</t>
   </si>
   <si>
-    <t>5 Project 5</t>
+    <t>6 Project 6</t>
   </si>
   <si>
-    <t>Project 7</t>
+    <t>Project 11</t>
   </si>
   <si>
-    <t>7 Project 7</t>
+    <t>11 Project 11</t>
   </si>
   <si>
     <t>Project 13</t>
@@ -191,28 +194,22 @@
     <t>13 Project 13</t>
   </si>
   <si>
-    <t>Project 6</t>
+    <t>Project 23</t>
   </si>
   <si>
-    <t>6 Project 6</t>
+    <t>23 Project 23</t>
   </si>
   <si>
-    <t>Project 10</t>
+    <t>Project 21</t>
   </si>
   <si>
-    <t>10 Project 10</t>
+    <t>21 Project 21</t>
   </si>
   <si>
-    <t>Project 11</t>
+    <t>Project 25</t>
   </si>
   <si>
-    <t>11 Project 11</t>
-  </si>
-  <si>
-    <t>Project 3</t>
-  </si>
-  <si>
-    <t>3 Project 3</t>
+    <t>25 Project 25</t>
   </si>
   <si>
     <t>Dena Demas</t>
@@ -775,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -803,139 +800,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1094,157 +958,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Competition Parameters"/>
-      <sheetName val="Criteria"/>
-      <sheetName val="Projects"/>
-      <sheetName val="Markers"/>
-      <sheetName val="Keywords"/>
-      <sheetName val="Project Keywords"/>
-      <sheetName val="Marker Expertise"/>
-      <sheetName val="Project X Marker Table"/>
-      <sheetName val="Expertise Crosswalk"/>
-      <sheetName val="Assignments Master"/>
-      <sheetName val="Results"/>
-      <sheetName val="Analysis"/>
-      <sheetName val="Analysis Chart"/>
-      <sheetName val="Expertise by Projects - Instr."/>
-      <sheetName val="Expertise by Keywords - Instr."/>
-      <sheetName val="Marker Project - template"/>
-      <sheetName val="Marker Keyword - template"/>
-      <sheetName val="Instructions to Markers"/>
-      <sheetName val="Scores and Comments - template"/>
-      <sheetName val="Marker Scoresheet - template"/>
-      <sheetName val="Project Comments - template"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>AN EXCITING PROGRAM/COMPETITION</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>Enter the list the Criteria for this competition</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Criteria #</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Criteria Names 
-(keep these short)</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Min value</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Max Value</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Criteria 1</v>
-          </cell>
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-          <cell r="D3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Criteria 2</v>
-          </cell>
-          <cell r="C4">
-            <v>1</v>
-          </cell>
-          <cell r="D4">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>3</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Criteria 3</v>
-          </cell>
-          <cell r="C5">
-            <v>1</v>
-          </cell>
-          <cell r="D5">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1543,7 +1256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609CE433-5E3F-4956-B858-1C003C2405A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E238AF-3112-4CD7-AFFA-7522AEB77F62}">
   <sheetPr codeName="Sheet29">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1551,7 +1264,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A10" sqref="A10:K10"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1620,112 +1333,112 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="122" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="67" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="122" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="122" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="122" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="122" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="122" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="122" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="122" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1737,30 +1450,30 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C8" location="'3 Project 3'!K6" display="3 Project 3" xr:uid="{EA8DC0AD-2B61-48B0-B606-7778DE9A102E}"/>
-    <hyperlink ref="C9" location="'5 Project 5'!K6" display="5 Project 5" xr:uid="{FC11E453-DC1E-4442-A2A0-02A5262CD3A1}"/>
-    <hyperlink ref="C10" location="'6 Project 6'!K6" display="6 Project 6" xr:uid="{9C114426-78D6-467F-A9E4-D7B5087CA6FE}"/>
-    <hyperlink ref="C11" location="'7 Project 7'!K6" display="7 Project 7" xr:uid="{C60169F3-F6EF-4B8E-8847-539333F39118}"/>
-    <hyperlink ref="C12" location="'10 Project 10'!K6" display="10 Project 10" xr:uid="{01165C78-EE54-4DA2-B803-5B0A74DBA07A}"/>
-    <hyperlink ref="C13" location="'11 Project 11'!K6" display="11 Project 11" xr:uid="{53EC2B09-FF88-431B-8D02-34146F866C61}"/>
-    <hyperlink ref="C14" location="'12 Project 12'!K6" display="12 Project 12" xr:uid="{4315F7CF-D42B-438B-8866-FF6535E786E7}"/>
-    <hyperlink ref="C15" location="'13 Project 13'!K6" display="13 Project 13" xr:uid="{0EFDF885-ED46-4E7B-9FE3-524FEC688EB6}"/>
-    <hyperlink ref="C16" location="'20 Project 20'!K6" display="20 Project 20" xr:uid="{1D369EF4-E34B-4EFC-8636-5CDD6A073EB5}"/>
-    <hyperlink ref="C17" location="'22 Project 22'!K6" display="22 Project 22" xr:uid="{F161DD4D-9667-41C6-BF65-493B427273FE}"/>
+    <hyperlink ref="C8" location="'6 Project 6'!K6" display="6 Project 6" xr:uid="{202C909E-9ED5-4F20-AABC-8DD50F34266F}"/>
+    <hyperlink ref="C9" location="'11 Project 11'!K6" display="11 Project 11" xr:uid="{C45AA5C5-36A7-42C9-95A9-967CD6D5ADDA}"/>
+    <hyperlink ref="C10" location="'13 Project 13'!K6" display="13 Project 13" xr:uid="{C8A8511C-45A2-43E3-BFDE-8DA6D38F22EA}"/>
+    <hyperlink ref="C11" location="'14 Project 14'!K6" display="14 Project 14" xr:uid="{99E22884-0B64-44C7-9855-7019EEF46FAE}"/>
+    <hyperlink ref="C12" location="'15 Project 15'!K6" display="15 Project 15" xr:uid="{90AC9F8E-39C8-4FE7-9AF3-46F8B04C4538}"/>
+    <hyperlink ref="C13" location="'16 Project 16'!K6" display="16 Project 16" xr:uid="{FDD93755-32D4-4CB4-A3F8-18CA7CE7B7A0}"/>
+    <hyperlink ref="C14" location="'21 Project 21'!K6" display="21 Project 21" xr:uid="{70877902-C080-4D74-B159-572CBE0CBF7E}"/>
+    <hyperlink ref="C15" location="'22 Project 22'!K6" display="22 Project 22" xr:uid="{97F6686A-293E-43EC-8F85-12608322E5DE}"/>
+    <hyperlink ref="C16" location="'23 Project 23'!K6" display="23 Project 23" xr:uid="{8430D297-0852-4B6E-91A5-32DEFA5BD7F8}"/>
+    <hyperlink ref="C17" location="'25 Project 25'!K6" display="25 Project 25" xr:uid="{B00DC669-3811-44D2-8A43-AE0C6B354762}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158F4BC4-5D3C-4130-A11D-39FA9ADEB4D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E400289-CB23-4370-B923-B3D2115956B1}">
   <sheetPr codeName="Sheet16">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,9 +1487,8 @@
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="str">
-        <f>'[1]Competition Parameters'!C7</f>
-        <v>AN EXCITING PROGRAM/COMPETITION</v>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1816,64 +1528,68 @@
       <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27">
-        <v>20</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="28">
+        <v>23</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27">
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
         <v>3</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
@@ -1894,349 +1610,340 @@
       <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="43" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53" t="str">
-        <f>VLOOKUP('20 Project 20'!B12,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 1</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="D12" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="59">
-        <v>2.9742159843444824</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="F13" s="66">
+        <v>1.6625804901123047</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="53" t="str">
-        <f>VLOOKUP('20 Project 20'!B17,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 2</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="D17" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="59">
-        <v>2.6295225620269775</v>
-      </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="F18" s="66">
+        <v>3.6449954509735107</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="53" t="str">
-        <f>VLOOKUP('20 Project 20'!B22,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 3</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="D22" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="59">
-        <v>4.7248821258544922</v>
-      </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="F23" s="66">
+        <v>4.9367642402648926</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2J70RJD+El8ZBuHHyhNJ2EMNQZxD1LQnlj0S9VXkysGCCNyptZrQ6ljhYH+rUNUlcbXa/PGdarLuYPQYwPNo2w==" saltValue="Fj+CWuv1a12mzuiPohK+pQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ve5UGY1h6XDIxT/EGeDA1VQxtsro8GLmx2QY5YHEaRQYE8lfhb76nBJgl/2EsiDPCWrL4itmbdnPbLrMEzSnYg==" saltValue="DXHiZLZHjjy0si2I1ujlaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -2264,10 +1971,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{50BBA153-5E3B-498E-A6E9-FC97D361B39D}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{C3816209-4717-4917-99CB-34C3D1F7A419}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{EAAF4777-ED3E-41EC-832A-19FD48A5170D}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{A2002F0B-C1AB-4A93-92CF-F9CD5B45FC40}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2276,14 +1983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D80CC-31D9-4BF0-9FB9-7FCD1A1DA7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E6B7C-8BD0-4EEC-AA28-4E79E6DC195D}">
   <sheetPr codeName="Sheet17">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,9 +2004,8 @@
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="str">
-        <f>'[1]Competition Parameters'!C7</f>
-        <v>AN EXCITING PROGRAM/COMPETITION</v>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2339,64 +2045,68 @@
       <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27">
-        <v>22</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="28">
+        <v>25</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27">
-        <v>3</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
@@ -2417,349 +2127,340 @@
       <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="43" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53" t="str">
-        <f>VLOOKUP('22 Project 22'!B12,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 1</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="D12" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="59">
-        <v>2.0049655437469482</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="F13" s="66">
+        <v>4.0944168567657471</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="53" t="str">
-        <f>VLOOKUP('22 Project 22'!B17,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 2</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="D17" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="59">
-        <v>3.2162289619445801</v>
-      </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="F18" s="66">
+        <v>3.2725820541381836</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="53" t="str">
-        <f>VLOOKUP('22 Project 22'!B22,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 3</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="D22" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="59">
-        <v>1.1778976917266846</v>
-      </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="F23" s="66">
+        <v>2.534717321395874</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n1pjhCgYjKpwyFPy+7enPQ6D7rDHlDZbIXg7zvba46GbMNQPrAvn5uv2ZfhJJ3Q/VmbM63nObUQFpIqf/WSUJA==" saltValue="5ns6xsFzwMZMzxUBauqZCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZEuEOy3QdwREBufXYCivB/nuaEJW9eQrIyV4PlK+wq2qIetKEGYyYs0aSJRdyhPOqrcVw7gO0qLpfe2Cf2leuw==" saltValue="U3vlUCXowTypmzAnDHYp4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -2787,10 +2488,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{8A3BB8F5-4163-4C6A-A5BC-05A8EFBA596F}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{124D40C1-0485-42BC-9C9D-0DE54855F2F9}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{7757E9A7-9E02-4161-8062-1A516D2DC256}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{C070AC1F-E32B-414E-BFAE-C2B45F7F295B}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2799,13 +2500,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62285A6A-5DB1-4FE4-B631-1CDE67EF7D7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F771A0-D459-44AE-B28D-D4752C398262}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2817,466 +2518,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="83">
-        <v>3</v>
-      </c>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="28">
+        <v>6</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="83">
-        <v>3</v>
-      </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
+      <c r="B5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="116"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="97" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="107">
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="121">
-        <v>2.742612361907959</v>
-      </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
+      <c r="F13" s="66">
+        <v>4.0532455444335938</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="120"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="102">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="105"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="121">
-        <v>2.6934740543365479</v>
-      </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
+      <c r="F18" s="66">
+        <v>1.2952659130096436</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="120"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="102">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="105"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="107">
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="109" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="121">
-        <v>4.4256057739257813</v>
-      </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
+      <c r="F23" s="66">
+        <v>3.5191559791564941</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="120"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eLL3XTGHV7RmFNyN6ouLdcv1mHf0BMPLZqe262xU4wt8v37ZfNjevR8CKgOLsgXQrmUIMfByTaO6xbDxTDmjSw==" saltValue="siygH9FwLH7vK/UFGqASQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wKJUFXVr/4UFLss7Yyd1A87lJ9az9eudSLL5PrO0zKOF1NWiXzVNI/W4//G88FcHFRE2A4bkXA6+QRjPK7+VMA==" saltValue="lLue5UD3bjBwp4Kf7JlFkw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -3304,10 +3005,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{1AC1C372-76B7-434B-923A-1F6BA77AD428}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{8EC4430B-EDF7-42D4-8147-23C8DF5B2374}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{1A54F265-1FE3-4F24-9B14-4F848083A741}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{47D21545-B935-4755-99B7-FA845E7981AC}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
   </dataValidations>
@@ -3316,13 +3017,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7BBEEE-EB85-4D17-AAA2-38246D6209EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0177D7-B958-4135-B4D3-35784E6EC65A}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -3334,466 +3035,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="83">
-        <v>5</v>
-      </c>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="28">
+        <v>11</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="83">
-        <v>3</v>
-      </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
+      <c r="B5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="116"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="97" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="107">
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="121">
-        <v>1.2250602245330811</v>
-      </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
+      <c r="F13" s="66">
+        <v>3.7476322650909424</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="120"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="102">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="105"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="121">
-        <v>4.5891480445861816</v>
-      </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
+      <c r="F18" s="66">
+        <v>4.1117639541625977</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="120"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="102">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="105"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="107">
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="109" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="121">
-        <v>1.9595310688018799</v>
-      </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
+      <c r="F23" s="66">
+        <v>2.6206872463226318</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="120"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2XjpgmFbkiBEkdNjhkrZDbBXPtBBV5HsomXgZx4TBpcmoW5mZzO4DGJdCZW+mdnEm840hmUh/lkJVhKgHUAxag==" saltValue="Jde2rToP9UwEUWeUKGhNdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ESGpxK6D4Lrz9bTc2XazWhLQ5KgXHF1I/6Cd0s7HBDiKwLp3cnAlROQ764ozDSZUTtif3E0G2I1hYe9NSRoHjA==" saltValue="4HCdy4js9G+V+L1M1F6zOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -3821,10 +3522,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{4B4998A1-E0DD-45B5-BD1D-F985475AE313}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{57E69EA9-9928-4E19-9D96-904B98105768}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{75094D7B-D2D1-4084-A7B2-FA5EAF1DB17C}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{2E27631D-AAA2-4D42-A867-6B3888C8EC2B}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3833,13 +3534,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024A9BCC-21F7-4A76-86A2-857CF3F78898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE14B4A8-3BC8-414F-AAD5-E260BED5A1DB}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -3851,466 +3552,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="83">
-        <v>6</v>
-      </c>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="28">
+        <v>13</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="83">
-        <v>3</v>
-      </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="116"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="97" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="107">
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="121">
-        <v>1.2104425430297852</v>
-      </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
+      <c r="F13" s="66">
+        <v>4.0399622917175293</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="120"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="102">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="105"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="121">
-        <v>4.1215264797210693</v>
-      </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
+      <c r="F18" s="66">
+        <v>1.6940023899078369</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="120"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="102">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="105"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="107">
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="109" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="121">
-        <v>1.1468195915222168</v>
-      </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
+      <c r="F23" s="66">
+        <v>4.7462863922119141</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="120"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Qel/UlwPsyVKaRh3krK5xF8EV5kD1ComASe3ur75gEcLhTM0AZ/BOeXgyP0LRDq/I0lvEGCvJomG+G+1k+qnyQ==" saltValue="4xF/QybZAE5mEaZKJoJHPg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PEH0IUUlrgaIqVuo9jrSANWiXrgx1ksE+AM0dESMqA7dk41/+VLAK9OHuZprY/++kpdaBdbGpnM/6EXIapogfw==" saltValue="ucbIPgU6nZgZUOMMoZXafw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -4338,10 +4039,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{07CB94AB-15DF-47CB-8E0E-9C3EBC738D81}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{5D7B86F2-121B-4461-AD9E-8E6186BAECBF}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{0434A1C0-AD93-4827-A6A0-8A683E4D5D59}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{3C88F110-1CBD-4A9A-A612-DACB04F0AEF7}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4350,13 +4051,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E65471-E6F6-4EAF-814B-601D1BEFD3E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76789732-7224-4285-BED6-ABD4D98FCB4A}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -4368,466 +4069,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="83">
-        <v>7</v>
-      </c>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="28">
+        <v>14</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="83">
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
         <v>3</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
+      <c r="B5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="116"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="97" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="107">
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="121">
-        <v>1.5453054904937744</v>
-      </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
+      <c r="F13" s="66">
+        <v>2.2962214946746826</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="120"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="102">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="105"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="121">
-        <v>3.6767520904541016</v>
-      </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
+      <c r="F18" s="66">
+        <v>1.276054859161377</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="120"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="102">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="105"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="107">
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="109" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="121">
-        <v>2.0516993999481201</v>
-      </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
+      <c r="F23" s="66">
+        <v>2.1976387500762939</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="120"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Le1JfThvulnfHfl+0HvLov1Z0fva+e8Tx4EJ41WEYmpWQM7Xn0+YjmZSW54tBDCw1q4tqMUcMe9uvENC/k9xOw==" saltValue="+4vO/kVbrzbBzYJvq0hjfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nJZjPmT+ToJ4x2tKkoHUeAy98ugVoNTicDXo/09AOpFA0vmlmagQlZYM926qfe4bcafq4fDE8PxCTpKa+yg5BQ==" saltValue="8wx7trDLKdqFPXDxvjtl3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -4855,10 +4556,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{E6C9A76E-D3C8-48A4-B70F-2A3AC6A0FF66}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{80B275B6-C729-4766-857C-1C902443B6AD}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{C107AF20-9053-4AC2-BC58-7CD981AA13C6}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{9F19A2F6-46E9-4A72-B3B0-C2685510FFFB}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4867,13 +4568,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB6A592-60CE-47FA-9994-614350AE4939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116D0285-E469-46A9-9341-21455367EDDA}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -4885,466 +4586,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="83">
-        <v>10</v>
-      </c>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="28">
+        <v>15</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="83">
-        <v>2</v>
-      </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
+      <c r="B5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="116"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="97" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="107">
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="121">
-        <v>4.3689961433410645</v>
-      </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
+      <c r="F13" s="66">
+        <v>3.599635124206543</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="120"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="102">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="105"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="121">
-        <v>1.8406898975372314</v>
-      </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
+      <c r="F18" s="66">
+        <v>1.6434018611907959</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="120"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="102">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="105"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="107">
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="109" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="121">
-        <v>1.9048566818237305</v>
-      </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
+      <c r="F23" s="66">
+        <v>4.5128340721130371</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="120"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="roUoi5mwlHH/SpE9EzuR5RJ3jlTEwWqDr/KIcTQKdvIg/HSl9JPZ1kncjP37IKYMl5q79smPS/FIzRWrN7a6IQ==" saltValue="EFZLW0dWE5TpNqfs9L0bZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JkmkjFjWFUh7vFQQlTX4pEExLrsdT7q1YiQNU2lJLSLWAhU7RS6NagMcemXPisUyWM5oQJ6G8iOiTcIfxMyQuA==" saltValue="yBSTEC77tpZexH2/bp7f+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -5372,10 +5073,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{8A9EAC6D-620A-44F5-8E10-E1A15585D959}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{9194BD13-45CA-4AD8-80F1-85ABCE8527B3}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{9D86EDB9-8A22-49EE-9BC0-EF8E59047B5C}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{BF6D09A7-C01F-496B-B180-19AC287C2B53}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5384,14 +5085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D2641-D8F0-4A0B-A46F-7DF2B76DF538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85B5AB7-C9E2-4459-9351-86B0C9FF6F27}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,9 +5106,8 @@
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="str">
-        <f>'[1]Competition Parameters'!C7</f>
-        <v>AN EXCITING PROGRAM/COMPETITION</v>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -5447,64 +5147,68 @@
       <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27">
-        <v>11</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="28">
+        <v>16</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27">
-        <v>3</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
+        <v>2</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
@@ -5525,349 +5229,340 @@
       <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="43" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53" t="str">
-        <f>VLOOKUP('11 Project 11'!B12,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 1</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="D12" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="59">
-        <v>3.0246121883392334</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="F13" s="66">
+        <v>1.6523401737213135</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="53" t="str">
-        <f>VLOOKUP('11 Project 11'!B17,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 2</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="D17" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="59">
-        <v>3.4785780906677246</v>
-      </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="F18" s="66">
+        <v>2.7404136657714844</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="53" t="str">
-        <f>VLOOKUP('11 Project 11'!B22,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 3</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="D22" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="59">
-        <v>3.426983118057251</v>
-      </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="F23" s="66">
+        <v>4.7064177989959717</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uJs+GOoUKc36t7hwnlIudzhbeQaoa/DtaVj7AskUo/sA4F9u0yUFJoCGfoarePuHCe3U6HlaU1s8OUukzI57AA==" saltValue="podWdQKwBB4oLstNJYCzjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ooDs8eTIbMs+pYu6bBKP5KYkqkpTzwTwlQMfCZqQkZr5A1WpCGmq/VrEBAYFiZSkRPmO040MBYQQNPAYTI2Frw==" saltValue="LdS2va44U/kmdKLiEjKbjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -5895,10 +5590,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{20EC3EE0-6A80-4451-A4C1-6813FF847EF3}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{893C7F0C-1A06-4D5C-BA6F-2369924770D5}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{B623E25E-5748-4348-9E56-FE49D92F5E18}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{3C895F2D-3CB6-412D-B7B9-A99F99F7E9F2}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5907,14 +5602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094017F3-3368-4230-BABC-E6290A1B876A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6051E-3356-4D6D-86CB-E38F70878469}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5928,9 +5623,8 @@
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="str">
-        <f>'[1]Competition Parameters'!C7</f>
-        <v>AN EXCITING PROGRAM/COMPETITION</v>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -5970,64 +5664,68 @@
       <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="28">
+        <v>21</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
+        <v>3</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
@@ -6048,349 +5746,340 @@
       <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="43" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53" t="str">
-        <f>VLOOKUP('12 Project 12'!B12,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 1</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="D12" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="59">
-        <v>1.4008598327636719</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="F13" s="66">
+        <v>2.8677315711975098</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="53" t="str">
-        <f>VLOOKUP('12 Project 12'!B17,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 2</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="D17" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="59">
-        <v>4.7719542980194092</v>
-      </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="F18" s="66">
+        <v>4.9558117389678955</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="53" t="str">
-        <f>VLOOKUP('12 Project 12'!B22,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 3</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="D22" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="59">
-        <v>2.5304970741271973</v>
-      </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="F23" s="66">
+        <v>2.7255067825317383</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WmzPzh0R+HQueN7lhIkkVNIf3Ivkp8RodfpbqCt3AIapbhwu8vs9zh6RoFHs1PCwlGZbJXZawgm1b+TGev/D4Q==" saltValue="lgMtTIvhmWl3LmaI9GfzBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ALk2DXt2b0rSOcU6vmnuk+wnZBs+Z0VieoSf0KlYXIBMrH2j/mXIroUgQE7rWqy7Ini4MGffyTGAjKxTdI9lEg==" saltValue="gb0F9SJWwpiqe/TyypjQYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -6418,10 +6107,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{F35E8216-5B71-44F4-AA33-9E9EF3CCF118}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{E6067FD1-E6FF-42F1-AA50-F2A192280183}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{798D28C9-0439-4861-860F-D31B80CE4608}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{FBD639D5-A330-4ABD-BA78-AF01727945F5}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6430,14 +6119,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01277E3B-14E2-4C05-B1C5-765C690729AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA6FB-6569-471B-82F9-4139478590E5}">
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6451,9 +6140,8 @@
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="str">
-        <f>'[1]Competition Parameters'!C7</f>
-        <v>AN EXCITING PROGRAM/COMPETITION</v>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -6493,64 +6181,68 @@
       <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="28">
+        <v>22</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
@@ -6571,349 +6263,340 @@
       <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="43" t="str">
+      <c r="H8" s="62"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="42" t="str">
         <f>IF(OR(AND( LEN(B8)&gt;0,LEN(E8)&gt;0),AND(LEN(B8)&gt;0,LEN(H8)&gt;0),AND(LEN(E8)&gt;0,LEN(H8)&gt;0)),"Only check one box","")</f>
         <v/>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="53" t="str">
-        <f>VLOOKUP('13 Project 13'!B12,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 1</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="D12" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B13" s="52">
         <v>1</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="56">
-        <f>VLOOKUP(B12,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D13" s="52">
         <v>5</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="59">
-        <v>2.389390230178833</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="F13" s="66">
+        <v>4.06461501121521</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="53" t="str">
-        <f>VLOOKUP('13 Project 13'!B17,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 2</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="D17" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B18" s="52">
         <v>1</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="56">
-        <f>VLOOKUP(B17,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D18" s="52">
         <v>5</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="59">
-        <v>1.1591463088989258</v>
-      </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="F18" s="66">
+        <v>3.8527102470397949</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="53" t="str">
-        <f>VLOOKUP('13 Project 13'!B22,[1]Criteria!$A:$B,2,FALSE)</f>
-        <v>Criteria 3</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="D22" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,3,FALSE)</f>
+      <c r="B23" s="52">
         <v>1</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="56">
-        <f>VLOOKUP(B22,[1]Criteria!$A:$D,4,FALSE)</f>
+      <c r="D23" s="52">
         <v>5</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="59">
-        <v>4.5605714321136475</v>
-      </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="F23" s="66">
+        <v>1.82216477394104</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kbnsLNNAKwa9nHkQanh/LBhxpEHbkokTICsJFrFpho20FklZQlpQPU9r9JL7w3Sgp7DeKYXHnliERo22pBP7XA==" saltValue="a4tsn68JWlZ4B4nsYmkVuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ISsC/XUjko+BpwCHme8tjBgqnysSyVVsXXTPB2gb0s0K1ZohtWfswrS7rvpAoe8G4LSWHhnEteQZDcrNSBsHLg==" saltValue="tZsyFTEsXQ/OYzB9qAF1jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="24">
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="D22:K22"/>
@@ -6941,10 +6624,10 @@
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{3FFCA279-27DF-461F-8524-1641B34DF90B}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6" xr:uid="{80BDAEEF-FD69-4694-9ED9-10AC7571FC7A}">
       <formula1>OR(K6="YES",K6="NO")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{42BD60FE-E155-499F-AC35-0D579A283970}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F18 F23" xr:uid="{B73D07C7-5FDF-4503-B253-45CA7DF174A7}">
       <formula1>AND(F13&lt;=D13,F13&gt;=B13)</formula1>
     </dataValidation>
   </dataValidations>
